--- a/API.xlsx
+++ b/API.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\xxamp\htdocs\FoodNow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB509EDD-EC62-48A6-A17F-33BC303C5573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8F2607-3A4D-45DB-BA99-384BBC419C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4F8CB091-FBB7-44FA-BCFA-34D122D9ECDB}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="130">
   <si>
     <t>GET</t>
   </si>
@@ -201,9 +195,6 @@
     <t>Lấy thông tin tài khoản cửa hàng</t>
   </si>
   <si>
-    <t>https://thongtindoanhnghiep.co/api/city</t>
-  </si>
-  <si>
     <t>http://localhost:3000/addCuaHang</t>
   </si>
   <si>
@@ -223,6 +214,212 @@
   </si>
   <si>
     <t>Thêm khuyến mãi cửa hàng mới</t>
+  </si>
+  <si>
+    <t>Thêm cửa hàng mới</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/cuahangs_chinhanh</t>
+  </si>
+  <si>
+    <t>Lấy danh sách cửa hàng thuộc một chi nhánh</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/addChiNhanh</t>
+  </si>
+  <si>
+    <t>Thêm mới chi nhánh</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/chinhanh</t>
+  </si>
+  <si>
+    <t>Lấy danh sách tất cả các chi nhánh</t>
+  </si>
+  <si>
+    <t>Xóa chi nhánh</t>
+  </si>
+  <si>
+    <t>Thêm mới khách hàng</t>
+  </si>
+  <si>
+    <t>Khách hàng đăng nhập</t>
+  </si>
+  <si>
+    <t>Chi tiết giỏ hàng của 1 tài khoản</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết giỏ hàng</t>
+  </si>
+  <si>
+    <t>Đơn hàng của khách hàng</t>
+  </si>
+  <si>
+    <t>Thông tin đơn hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết đơn hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các cửa hàng khách hàng yêu thích</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Khách hàng thêm cửa hàng yêu thích vào danh sách yêu thích của mình</t>
+  </si>
+  <si>
+    <t>Quản trị viên đăng nhập</t>
+  </si>
+  <si>
+    <t>Cập nhật giỏ hàng</t>
+  </si>
+  <si>
+    <t>Đặt hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị các cửa hàng được KMHT áp dụng</t>
+  </si>
+  <si>
+    <t>Lấy thông tin chi tiết đơn hàng</t>
+  </si>
+  <si>
+    <t>Lấy danh sách đơn hàng đươc khách hàng đặt</t>
+  </si>
+  <si>
+    <t>Lấy danh sách đơn hàng của cửa hàng</t>
+  </si>
+  <si>
+    <t>Cập nhật mật khẩu cửa hàng</t>
+  </si>
+  <si>
+    <t>Cập nhật trạng thái đơn hàng của khách hàng</t>
+  </si>
+  <si>
+    <t>Cửa hàng xác nhận hoặc hủy đơn</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách món ăn: Loại món ăn và món ăn của cửa hàng trên app</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách món ăn khi chọn loại món ăn</t>
+  </si>
+  <si>
+    <t>Lấy danh sách khuyến mãi mà hệ thống áp dụng cho cửa hàng</t>
+  </si>
+  <si>
+    <t>Kích hoạt trạng thái cửa hàng</t>
+  </si>
+  <si>
+    <t>Thêm địa chỉ cho khách hàng</t>
+  </si>
+  <si>
+    <t>Lấy danh sách tất cả cửa hàng được khuyến mãi hệ thống áp dụng</t>
+  </si>
+  <si>
+    <t>Hiển thị kết quả tìm kiếm gồm danh sách cửa hàng và món ăn cửa hàng đó</t>
+  </si>
+  <si>
+    <t>Lấy data cho fragment home gồm các khối thông tin sau
++ thông tin về khuyến mãi của hệ thống
++ Gợi ý các cửa hàng - title "Hôm nay ăn gì ?"
++ Danh mục - detail danh mục cửa hàng của hệ thống FoodNow</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/deleteChiNhanh</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/addKhachHang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/DangNhap</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/getGioHang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/CTGioHang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/getDonHang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/DonHang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/CTDonHang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/HienThiCuaHang_KhachHangYeuThich</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/Hienthithongtin_taikhoankhachhang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/Themcuahangyeuthich_khachhang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/Dangnhapadmin</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/fragment_home</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/chonSanPham</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/datHang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/Hienthicuahangduocapdungkhuyenmai</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/chitietDonHang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/danhSachDongHang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/donHangMoi</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/capnhatmatkhau_cuahang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/capNhatTrangThaiDonHang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/cuaHangCapNhatTrangThaiDonHang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/Hienthimonan_chonloaimonan</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/kichHoatCuaHang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/danhSachDonHang_KhachHang</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/themDiaChi</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/getDanhSachCuaHangKMHT</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/Hienthiketqua_timkiemmonan</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/cuaHangThongKeDonHang</t>
+  </si>
+  <si>
+    <t>Lấy thông tin thống kê của cửa hàng và gửi về thông tin thống kê các đơn hàng 
+của cửa hàng</t>
+  </si>
+  <si>
+    <t>Lấy danh sách đơn hàng của khách hàng: 
+đơn hàng tạm, đơn hàng đã đặt đang chờ xác nhận, đơn hàng cửa hàng xác nhận</t>
   </si>
 </sst>
 </file>
@@ -292,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -315,6 +512,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,15 +830,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396C06BB-CB71-4BC1-B4DE-D4C11534D35C}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1017,10 +1217,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1045,21 +1245,25 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="1:4" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -1069,32 +1273,545 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="B58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A105:D105"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" xr:uid="{CA329CA9-43F8-454D-90FE-C3652246C122}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{2F1F3FBA-1814-4292-A325-9E1811A556A6}"/>
     <hyperlink ref="C26" r:id="rId3" xr:uid="{5AC4FB9E-9CA6-414A-8FCB-3A57404929C4}"/>
-    <hyperlink ref="C31" r:id="rId4" xr:uid="{C993DC3A-DA61-4156-ADEC-7E13AEF282C1}"/>
+    <hyperlink ref="C30" r:id="rId4" xr:uid="{C993DC3A-DA61-4156-ADEC-7E13AEF282C1}"/>
     <hyperlink ref="C27" r:id="rId5" xr:uid="{6B822176-2DD6-4D24-AA58-93C11786E818}"/>
     <hyperlink ref="C28" r:id="rId6" xr:uid="{D1FEAF99-6BE2-4A21-89E9-D0CD6224CCFB}"/>
     <hyperlink ref="C29" r:id="rId7" xr:uid="{C7FB194B-8F76-425D-BF1A-E55911E47513}"/>
+    <hyperlink ref="C31" r:id="rId8" xr:uid="{492B1C88-4B0B-4692-84B9-B791CD4CF9C3}"/>
+    <hyperlink ref="C32" r:id="rId9" xr:uid="{1F8A0729-6E88-47CF-91C4-586D3E6D68CB}"/>
+    <hyperlink ref="C33" r:id="rId10" xr:uid="{D0E9E947-8034-4916-8B49-46CE70948957}"/>
+    <hyperlink ref="C34" r:id="rId11" xr:uid="{75E0B7AE-3809-401E-B4E9-9AA3E5F48ACF}"/>
+    <hyperlink ref="C35" r:id="rId12" xr:uid="{BD9F1BA4-7F1A-42C3-8116-6294FD10AD19}"/>
+    <hyperlink ref="C36" r:id="rId13" xr:uid="{AEEEAA85-7BE7-4411-9BB5-451DDD0D3E8E}"/>
+    <hyperlink ref="C37" r:id="rId14" xr:uid="{2FBDDB00-CBA8-4106-B5E1-C881FF771316}"/>
+    <hyperlink ref="C38" r:id="rId15" xr:uid="{0CF72B63-B9CF-4037-8BBF-49AB70C90CBF}"/>
+    <hyperlink ref="C39" r:id="rId16" xr:uid="{4D561000-B639-45DA-80BF-4290981DB074}"/>
+    <hyperlink ref="C40" r:id="rId17" xr:uid="{94742373-B2E2-41DD-B423-8E62A5F03E99}"/>
+    <hyperlink ref="C41" r:id="rId18" xr:uid="{1A9320D6-FF5C-48D0-BE4C-01FDFC9637FA}"/>
+    <hyperlink ref="C42" r:id="rId19" xr:uid="{B8EFFDB1-B926-4E71-976D-8E0FD8976895}"/>
+    <hyperlink ref="C43" r:id="rId20" xr:uid="{9A221739-ADDD-4452-BB9D-6A8A4524B3BB}"/>
+    <hyperlink ref="C44" r:id="rId21" xr:uid="{8729F7CF-AB3E-41C4-9979-2AB5FD2DD08C}"/>
+    <hyperlink ref="C45" r:id="rId22" xr:uid="{5098A147-E711-4928-BE1B-22EC877E76EC}"/>
+    <hyperlink ref="C46" r:id="rId23" xr:uid="{42F03ECD-410A-4C83-B4F7-3A1A2165DF43}"/>
+    <hyperlink ref="C47" r:id="rId24" xr:uid="{74DB4781-C247-41D6-8A32-B765D9C3416F}"/>
+    <hyperlink ref="C48" r:id="rId25" xr:uid="{8BB57F61-829D-48C0-A954-DFC9E26E8DED}"/>
+    <hyperlink ref="C49" r:id="rId26" xr:uid="{FC9DC6EE-522C-4B3C-89E4-FBC67BC92D99}"/>
+    <hyperlink ref="C50" r:id="rId27" xr:uid="{21B7CE44-4D48-4F69-B347-F7C391E874DA}"/>
+    <hyperlink ref="C51" r:id="rId28" xr:uid="{8E5BEFAE-EA33-4907-A14A-CE61B2DBF75C}"/>
+    <hyperlink ref="C52" r:id="rId29" xr:uid="{06C14D28-05D0-4D97-88E7-201806C7BF9E}"/>
+    <hyperlink ref="C53" r:id="rId30" xr:uid="{9BA78717-03F1-4184-A531-6BCD24441265}"/>
+    <hyperlink ref="C54" r:id="rId31" xr:uid="{7107E0B1-C8AB-4800-86DE-8F5A96ABAE57}"/>
+    <hyperlink ref="C55" r:id="rId32" xr:uid="{3EF534FD-4F71-46EF-A883-F8BE04E75E29}"/>
+    <hyperlink ref="C56" r:id="rId33" xr:uid="{23E2C8A1-5C75-4139-93F8-09AF75ED87D8}"/>
+    <hyperlink ref="C57" r:id="rId34" xr:uid="{6F159FEA-5126-40B5-857D-F085FF99274B}"/>
+    <hyperlink ref="C58" r:id="rId35" xr:uid="{1134112F-F8D2-4F68-ACF5-A0711CDE5D7C}"/>
+    <hyperlink ref="C59" r:id="rId36" xr:uid="{C547BB5D-CA42-441B-903B-C7F1FDDF1EAA}"/>
+    <hyperlink ref="C60" r:id="rId37" xr:uid="{6878AAC3-6E2A-4D56-8065-C81CAA095C1C}"/>
+    <hyperlink ref="C61" r:id="rId38" xr:uid="{8F842FD8-1C56-4827-AD43-1CA374FBCA6F}"/>
+    <hyperlink ref="C62" r:id="rId39" xr:uid="{F6CBF185-7AF9-4147-8522-B5CE4E5727D7}"/>
+    <hyperlink ref="C63" r:id="rId40" xr:uid="{3E4E2FBD-6C2C-4771-AD09-105A978261B7}"/>
+    <hyperlink ref="C64" r:id="rId41" xr:uid="{5D0D623F-3C76-4BF3-A210-B2D49EBF1BBD}"/>
+    <hyperlink ref="C65" r:id="rId42" xr:uid="{DFCD69F8-2454-4E03-A040-37B245895B00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId43"/>
 </worksheet>
 </file>
--- a/API.xlsx
+++ b/API.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\xxamp\htdocs\FoodNow\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8F2607-3A4D-45DB-BA99-384BBC419C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4F8CB091-FBB7-44FA-BCFA-34D122D9ECDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,7 +419,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,14 +501,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,7 +570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -628,7 +622,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -822,30 +816,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396C06BB-CB71-4BC1-B4DE-D4C11534D35C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="229.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -859,7 +851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -873,7 +865,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -887,7 +879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -901,7 +893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -915,7 +907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -929,7 +921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -943,7 +935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -957,7 +949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -971,7 +963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -985,7 +977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -999,7 +991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1013,7 +1005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1027,7 +1019,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1041,7 +1033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1055,7 +1047,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1069,7 +1061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1083,7 +1075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1097,7 +1089,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1111,7 +1103,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1125,7 +1117,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1139,7 +1131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1153,7 +1145,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1167,7 +1159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1181,7 +1173,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1195,7 +1187,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1209,7 +1201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1223,7 +1215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1237,7 +1229,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1251,7 +1243,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1265,7 +1257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1279,7 +1271,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1293,7 +1285,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1307,7 +1299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1321,7 +1313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1335,7 +1327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1349,7 +1341,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1363,7 +1355,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1377,7 +1369,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1391,7 +1383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1405,7 +1397,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1419,7 +1411,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1433,7 +1425,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1447,7 +1439,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1461,7 +1453,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1475,7 +1467,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1489,7 +1481,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1503,7 +1495,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1517,7 +1509,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1531,7 +1523,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1545,7 +1537,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1559,7 +1551,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1573,7 +1565,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1587,7 +1579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1601,7 +1593,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1615,7 +1607,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1629,7 +1621,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1643,7 +1635,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -1657,7 +1649,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -1671,7 +1663,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -1685,7 +1677,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -1695,11 +1687,11 @@
       <c r="C61" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -1713,7 +1705,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -1727,7 +1719,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -1741,7 +1733,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -1751,65 +1743,65 @@
       <c r="C65" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A105:D105"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{CA329CA9-43F8-454D-90FE-C3652246C122}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{2F1F3FBA-1814-4292-A325-9E1811A556A6}"/>
-    <hyperlink ref="C26" r:id="rId3" xr:uid="{5AC4FB9E-9CA6-414A-8FCB-3A57404929C4}"/>
-    <hyperlink ref="C30" r:id="rId4" xr:uid="{C993DC3A-DA61-4156-ADEC-7E13AEF282C1}"/>
-    <hyperlink ref="C27" r:id="rId5" xr:uid="{6B822176-2DD6-4D24-AA58-93C11786E818}"/>
-    <hyperlink ref="C28" r:id="rId6" xr:uid="{D1FEAF99-6BE2-4A21-89E9-D0CD6224CCFB}"/>
-    <hyperlink ref="C29" r:id="rId7" xr:uid="{C7FB194B-8F76-425D-BF1A-E55911E47513}"/>
-    <hyperlink ref="C31" r:id="rId8" xr:uid="{492B1C88-4B0B-4692-84B9-B791CD4CF9C3}"/>
-    <hyperlink ref="C32" r:id="rId9" xr:uid="{1F8A0729-6E88-47CF-91C4-586D3E6D68CB}"/>
-    <hyperlink ref="C33" r:id="rId10" xr:uid="{D0E9E947-8034-4916-8B49-46CE70948957}"/>
-    <hyperlink ref="C34" r:id="rId11" xr:uid="{75E0B7AE-3809-401E-B4E9-9AA3E5F48ACF}"/>
-    <hyperlink ref="C35" r:id="rId12" xr:uid="{BD9F1BA4-7F1A-42C3-8116-6294FD10AD19}"/>
-    <hyperlink ref="C36" r:id="rId13" xr:uid="{AEEEAA85-7BE7-4411-9BB5-451DDD0D3E8E}"/>
-    <hyperlink ref="C37" r:id="rId14" xr:uid="{2FBDDB00-CBA8-4106-B5E1-C881FF771316}"/>
-    <hyperlink ref="C38" r:id="rId15" xr:uid="{0CF72B63-B9CF-4037-8BBF-49AB70C90CBF}"/>
-    <hyperlink ref="C39" r:id="rId16" xr:uid="{4D561000-B639-45DA-80BF-4290981DB074}"/>
-    <hyperlink ref="C40" r:id="rId17" xr:uid="{94742373-B2E2-41DD-B423-8E62A5F03E99}"/>
-    <hyperlink ref="C41" r:id="rId18" xr:uid="{1A9320D6-FF5C-48D0-BE4C-01FDFC9637FA}"/>
-    <hyperlink ref="C42" r:id="rId19" xr:uid="{B8EFFDB1-B926-4E71-976D-8E0FD8976895}"/>
-    <hyperlink ref="C43" r:id="rId20" xr:uid="{9A221739-ADDD-4452-BB9D-6A8A4524B3BB}"/>
-    <hyperlink ref="C44" r:id="rId21" xr:uid="{8729F7CF-AB3E-41C4-9979-2AB5FD2DD08C}"/>
-    <hyperlink ref="C45" r:id="rId22" xr:uid="{5098A147-E711-4928-BE1B-22EC877E76EC}"/>
-    <hyperlink ref="C46" r:id="rId23" xr:uid="{42F03ECD-410A-4C83-B4F7-3A1A2165DF43}"/>
-    <hyperlink ref="C47" r:id="rId24" xr:uid="{74DB4781-C247-41D6-8A32-B765D9C3416F}"/>
-    <hyperlink ref="C48" r:id="rId25" xr:uid="{8BB57F61-829D-48C0-A954-DFC9E26E8DED}"/>
-    <hyperlink ref="C49" r:id="rId26" xr:uid="{FC9DC6EE-522C-4B3C-89E4-FBC67BC92D99}"/>
-    <hyperlink ref="C50" r:id="rId27" xr:uid="{21B7CE44-4D48-4F69-B347-F7C391E874DA}"/>
-    <hyperlink ref="C51" r:id="rId28" xr:uid="{8E5BEFAE-EA33-4907-A14A-CE61B2DBF75C}"/>
-    <hyperlink ref="C52" r:id="rId29" xr:uid="{06C14D28-05D0-4D97-88E7-201806C7BF9E}"/>
-    <hyperlink ref="C53" r:id="rId30" xr:uid="{9BA78717-03F1-4184-A531-6BCD24441265}"/>
-    <hyperlink ref="C54" r:id="rId31" xr:uid="{7107E0B1-C8AB-4800-86DE-8F5A96ABAE57}"/>
-    <hyperlink ref="C55" r:id="rId32" xr:uid="{3EF534FD-4F71-46EF-A883-F8BE04E75E29}"/>
-    <hyperlink ref="C56" r:id="rId33" xr:uid="{23E2C8A1-5C75-4139-93F8-09AF75ED87D8}"/>
-    <hyperlink ref="C57" r:id="rId34" xr:uid="{6F159FEA-5126-40B5-857D-F085FF99274B}"/>
-    <hyperlink ref="C58" r:id="rId35" xr:uid="{1134112F-F8D2-4F68-ACF5-A0711CDE5D7C}"/>
-    <hyperlink ref="C59" r:id="rId36" xr:uid="{C547BB5D-CA42-441B-903B-C7F1FDDF1EAA}"/>
-    <hyperlink ref="C60" r:id="rId37" xr:uid="{6878AAC3-6E2A-4D56-8065-C81CAA095C1C}"/>
-    <hyperlink ref="C61" r:id="rId38" xr:uid="{8F842FD8-1C56-4827-AD43-1CA374FBCA6F}"/>
-    <hyperlink ref="C62" r:id="rId39" xr:uid="{F6CBF185-7AF9-4147-8522-B5CE4E5727D7}"/>
-    <hyperlink ref="C63" r:id="rId40" xr:uid="{3E4E2FBD-6C2C-4771-AD09-105A978261B7}"/>
-    <hyperlink ref="C64" r:id="rId41" xr:uid="{5D0D623F-3C76-4BF3-A210-B2D49EBF1BBD}"/>
-    <hyperlink ref="C65" r:id="rId42" xr:uid="{DFCD69F8-2454-4E03-A040-37B245895B00}"/>
+    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C26" r:id="rId3"/>
+    <hyperlink ref="C30" r:id="rId4"/>
+    <hyperlink ref="C27" r:id="rId5"/>
+    <hyperlink ref="C28" r:id="rId6"/>
+    <hyperlink ref="C29" r:id="rId7"/>
+    <hyperlink ref="C31" r:id="rId8"/>
+    <hyperlink ref="C32" r:id="rId9"/>
+    <hyperlink ref="C33" r:id="rId10"/>
+    <hyperlink ref="C34" r:id="rId11"/>
+    <hyperlink ref="C35" r:id="rId12"/>
+    <hyperlink ref="C36" r:id="rId13"/>
+    <hyperlink ref="C37" r:id="rId14"/>
+    <hyperlink ref="C38" r:id="rId15"/>
+    <hyperlink ref="C39" r:id="rId16"/>
+    <hyperlink ref="C40" r:id="rId17"/>
+    <hyperlink ref="C41" r:id="rId18"/>
+    <hyperlink ref="C42" r:id="rId19"/>
+    <hyperlink ref="C43" r:id="rId20"/>
+    <hyperlink ref="C44" r:id="rId21"/>
+    <hyperlink ref="C45" r:id="rId22"/>
+    <hyperlink ref="C46" r:id="rId23"/>
+    <hyperlink ref="C47" r:id="rId24"/>
+    <hyperlink ref="C48" r:id="rId25"/>
+    <hyperlink ref="C49" r:id="rId26"/>
+    <hyperlink ref="C50" r:id="rId27"/>
+    <hyperlink ref="C51" r:id="rId28"/>
+    <hyperlink ref="C52" r:id="rId29"/>
+    <hyperlink ref="C53" r:id="rId30"/>
+    <hyperlink ref="C54" r:id="rId31"/>
+    <hyperlink ref="C55" r:id="rId32"/>
+    <hyperlink ref="C56" r:id="rId33"/>
+    <hyperlink ref="C57" r:id="rId34"/>
+    <hyperlink ref="C58" r:id="rId35"/>
+    <hyperlink ref="C59" r:id="rId36"/>
+    <hyperlink ref="C60" r:id="rId37"/>
+    <hyperlink ref="C61" r:id="rId38"/>
+    <hyperlink ref="C62" r:id="rId39"/>
+    <hyperlink ref="C63" r:id="rId40"/>
+    <hyperlink ref="C64" r:id="rId41"/>
+    <hyperlink ref="C65" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId43"/>
